--- a/dbInittool/excels/RecipeDetail.xlsx
+++ b/dbInittool/excels/RecipeDetail.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cs20502\Desktop\TF\Hackathon\Reader\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cs20502\Desktop\TF\Hackathon\PickNic\dbInittool\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BD0304-9572-4554-9748-102E8EB31493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D51283E-AF68-454E-B2F4-C5540C7B118B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28905" yWindow="-6435" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-6555" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>materialId</t>
   </si>
   <si>
     <t>needNum</t>
+  </si>
+  <si>
+    <t>mealId</t>
   </si>
 </sst>
 </file>
@@ -355,28 +358,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/dbInittool/excels/RecipeDetail.xlsx
+++ b/dbInittool/excels/RecipeDetail.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cs20502\Desktop\TF\Hackathon\PickNic\dbInittool\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nokita\chasaji\PickNic\dbInittool\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D51283E-AF68-454E-B2F4-C5540C7B118B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EA2807-8C45-4994-ABCF-6EE9438276F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-6555" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10710" yWindow="0" windowWidth="10980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -358,10 +358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -401,12 +401,34 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
         <v>1</v>
       </c>
     </row>

--- a/dbInittool/excels/RecipeDetail.xlsx
+++ b/dbInittool/excels/RecipeDetail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nokita\chasaji\PickNic\dbInittool\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/endo/Documents/develop/test/PickNic/dbInittool/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EA2807-8C45-4994-ABCF-6EE9438276F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0DD582-DF29-8141-9061-94CDB081230E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10710" yWindow="0" windowWidth="10980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15360" yWindow="5420" windowWidth="10980" windowHeight="13780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,15 +358,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -377,7 +377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -388,7 +388,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -399,36 +399,47 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>1</v>
       </c>
     </row>

--- a/dbInittool/excels/RecipeDetail.xlsx
+++ b/dbInittool/excels/RecipeDetail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/endo/Documents/develop/test/PickNic/dbInittool/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nokita\chasaji\PickNic\dbInittool\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0DD582-DF29-8141-9061-94CDB081230E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04F7647-DAF1-41C2-8B43-9F2DB3E8B572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15360" yWindow="5420" windowWidth="10980" windowHeight="13780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10710" yWindow="0" windowWidth="10980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,15 +358,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -377,18 +377,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -396,50 +396,160 @@
         <v>3</v>
       </c>
       <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>13</v>
+      </c>
+      <c r="C17">
         <v>1</v>
       </c>
     </row>
